--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pritish Sanyal\Documents\UiPath\ACME System1 WI5 ClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB94C7-A1D2-40CA-9A07-62733BBA7DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE599F8-C231-4EF8-968F-7757129B7527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
